--- a/fifth/Report_Generation_Form.xlsx
+++ b/fifth/Report_Generation_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enfxm\Desktop\Python Testing\Test Report Template\Test-Report-Generator\fifth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27222B0B-BC00-46C8-A5B8-6105F97B17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0496CA-E11B-4493-954B-A138F315AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1810,7 +1810,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,6 +2339,7 @@
     <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fifth/Report_Generation_Form.xlsx
+++ b/fifth/Report_Generation_Form.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enfxm\Desktop\Python Testing\Test Report Template\Test-Report-Generator\fifth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0496CA-E11B-4493-954B-A138F315AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313C76F9-2717-4906-8B03-1BF622582050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Test Definitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Test Definitions" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
   <si>
     <t>Product Information</t>
   </si>
@@ -337,13 +338,43 @@
   </si>
   <si>
     <t>T_Name21 = T_Value21 (T_Unit21), T_Name22 = T_Value22 (T_Unit22)</t>
+  </si>
+  <si>
+    <t>Input - Input Current</t>
+  </si>
+  <si>
+    <t>GND Condition = F3</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Temp (C)</t>
+  </si>
+  <si>
+    <t>Input Current (A)</t>
+  </si>
+  <si>
+    <t>Input Voltage (V)</t>
+  </si>
+  <si>
+    <t>other (O)</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>blah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +402,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -417,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -999,11 +1043,306 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,6 +1600,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF779DD-3AF2-425E-956A-5AB0F10CC35F}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -2344,6 +2770,265 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8EE26F-CF75-4160-9CB6-A8D54E5D35E4}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98">
+        <v>1</v>
+      </c>
+      <c r="C1" s="98">
+        <v>2</v>
+      </c>
+      <c r="D1" s="98">
+        <v>3</v>
+      </c>
+      <c r="E1" s="98">
+        <v>4</v>
+      </c>
+      <c r="F1" s="98">
+        <v>5</v>
+      </c>
+      <c r="G1" s="98">
+        <v>6</v>
+      </c>
+      <c r="H1" s="98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97">
+        <v>0</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="97">
+        <v>1</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97">
+        <v>2</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="115"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="97">
+        <v>3</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="116">
+        <v>10</v>
+      </c>
+      <c r="E5" s="117">
+        <v>60</v>
+      </c>
+      <c r="F5" s="118">
+        <v>90</v>
+      </c>
+      <c r="G5" s="122">
+        <v>40</v>
+      </c>
+      <c r="H5" s="123">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="97">
+        <v>4</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="107"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="97">
+        <v>5</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="109">
+        <v>99</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="97">
+        <v>6</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="104">
+        <v>277</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="97">
+        <v>7</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="97">
+        <v>8</v>
+      </c>
+      <c r="B10" s="101"/>
+      <c r="C10" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="97">
+        <v>9</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B4:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6920F4-5B1E-42D2-B56A-988C6E3A1008}">
   <dimension ref="A1:C29"/>
   <sheetViews>
